--- a/data/trans_orig/P37-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>105857</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>87055</v>
+        <v>86945</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124792</v>
+        <v>123877</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1525293063498711</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1254378918748235</v>
+        <v>0.1252786879757646</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1798126669593794</v>
+        <v>0.1784935872318231</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>102</v>
@@ -765,19 +765,19 @@
         <v>102103</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>83022</v>
+        <v>85544</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>120635</v>
+        <v>121885</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1485282193055918</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1207707915339615</v>
+        <v>0.1244396078177868</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1754854999777983</v>
+        <v>0.1773045632551365</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>208</v>
@@ -786,19 +786,19 @@
         <v>207961</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>181693</v>
+        <v>180295</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>234733</v>
+        <v>236469</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1505382878531245</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1315239055431878</v>
+        <v>0.1305119525666183</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1699185474848194</v>
+        <v>0.1711745617054498</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>588155</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>569220</v>
+        <v>570135</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>606957</v>
+        <v>607067</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8474706936501289</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8201873330406205</v>
+        <v>0.8215064127681768</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8745621081251765</v>
+        <v>0.8747213120242353</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>593</v>
@@ -836,19 +836,19 @@
         <v>585332</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>566800</v>
+        <v>565550</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>604413</v>
+        <v>601891</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8514717806944082</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8245145000222017</v>
+        <v>0.8226954367448635</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8792292084660385</v>
+        <v>0.8755603921822133</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1170</v>
@@ -857,19 +857,19 @@
         <v>1173486</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1146714</v>
+        <v>1144978</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1199754</v>
+        <v>1201152</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8494617121468755</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8300814525151808</v>
+        <v>0.8288254382945502</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8684760944568124</v>
+        <v>0.8694880474333817</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>134445</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>115013</v>
+        <v>112836</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158032</v>
+        <v>155038</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1397851848779969</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1195806949369226</v>
+        <v>0.1173176809351894</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1643082794605671</v>
+        <v>0.1611954992934462</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>144</v>
@@ -982,19 +982,19 @@
         <v>157602</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>134198</v>
+        <v>136785</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>181700</v>
+        <v>182497</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1627456544278484</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1385782615964486</v>
+        <v>0.14124942919098</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.187629979580184</v>
+        <v>0.1884531498700631</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>273</v>
@@ -1003,19 +1003,19 @@
         <v>292047</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>257251</v>
+        <v>262449</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>326037</v>
+        <v>325517</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1513046332405791</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1332772747546118</v>
+        <v>0.1359705252627603</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1689141123268481</v>
+        <v>0.1686448432976557</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>827355</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>803768</v>
+        <v>806762</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>846787</v>
+        <v>848964</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8602148151220032</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.835691720539433</v>
+        <v>0.8388045007065538</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8804193050630774</v>
+        <v>0.8826823190648106</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>764</v>
@@ -1053,19 +1053,19 @@
         <v>810791</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>786693</v>
+        <v>785896</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>834195</v>
+        <v>831608</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8372543455721516</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8123700204198163</v>
+        <v>0.8115468501299367</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8614217384035521</v>
+        <v>0.85875057080902</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1531</v>
@@ -1074,19 +1074,19 @@
         <v>1638146</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1604156</v>
+        <v>1604676</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1672942</v>
+        <v>1667744</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8486953667594209</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8310858876731519</v>
+        <v>0.8313551567023443</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8667227252453882</v>
+        <v>0.8640294747372397</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>87789</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71175</v>
+        <v>71194</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108756</v>
+        <v>106664</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1295600392810395</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1050406213807241</v>
+        <v>0.1050682525480221</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1605024200737289</v>
+        <v>0.1574150878528018</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>109</v>
@@ -1199,19 +1199,19 @@
         <v>109958</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91706</v>
+        <v>92338</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>130009</v>
+        <v>130078</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1610263190681582</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1342970661876883</v>
+        <v>0.1352220347052391</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1903887588533976</v>
+        <v>0.1904907258334629</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>195</v>
@@ -1220,19 +1220,19 @@
         <v>197748</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>172843</v>
+        <v>169848</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>223785</v>
+        <v>222017</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1453540755899378</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1270480487362637</v>
+        <v>0.1248464858843698</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1644929391720861</v>
+        <v>0.1631931813880465</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>589806</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>568839</v>
+        <v>570931</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>606420</v>
+        <v>606401</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8704399607189606</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8394975799262708</v>
+        <v>0.842584912147198</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8949593786192759</v>
+        <v>0.8949317474519778</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>586</v>
@@ -1270,19 +1270,19 @@
         <v>572902</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>552851</v>
+        <v>552782</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>591154</v>
+        <v>590522</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8389736809318418</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8096112411466023</v>
+        <v>0.8095092741665372</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8657029338123117</v>
+        <v>0.8647779652947609</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1140</v>
@@ -1291,19 +1291,19 @@
         <v>1162707</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1136670</v>
+        <v>1138438</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1187612</v>
+        <v>1190607</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8546459244100623</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8355070608279138</v>
+        <v>0.8368068186119535</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.872951951263736</v>
+        <v>0.8751535141156304</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>126394</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106956</v>
+        <v>107883</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>146683</v>
+        <v>147372</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1342657929919058</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1136167371857232</v>
+        <v>0.1146023977204379</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1558183840265573</v>
+        <v>0.1565501965669367</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>155</v>
@@ -1416,19 +1416,19 @@
         <v>165679</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>140368</v>
+        <v>142931</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>189506</v>
+        <v>192529</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1595191898357045</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1351494411158208</v>
+        <v>0.1376172312476884</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1824608252030123</v>
+        <v>0.1853713305612112</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>293</v>
@@ -1437,19 +1437,19 @@
         <v>292073</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>260522</v>
+        <v>262470</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>325380</v>
+        <v>325412</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1475126094253169</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1315778307656431</v>
+        <v>0.1325615965056405</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1643344415514499</v>
+        <v>0.1643508963431322</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>814978</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>794689</v>
+        <v>794000</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>834416</v>
+        <v>833489</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8657342070080942</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8441816159734427</v>
+        <v>0.8434498034330631</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8863832628142767</v>
+        <v>0.8853976022795621</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>842</v>
@@ -1487,19 +1487,19 @@
         <v>872933</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>849106</v>
+        <v>846083</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>898244</v>
+        <v>895681</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8404808101642954</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8175391747969873</v>
+        <v>0.8146286694387873</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8648505588841791</v>
+        <v>0.8623827687523112</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1697</v>
@@ -1508,19 +1508,19 @@
         <v>1687911</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1654604</v>
+        <v>1654572</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1719462</v>
+        <v>1717514</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8524873905746831</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8356655584485502</v>
+        <v>0.835649103656868</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.868422169234357</v>
+        <v>0.8674384034943595</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>454486</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>419419</v>
+        <v>415391</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>493056</v>
+        <v>492356</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1387836733916209</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1280754041279349</v>
+        <v>0.1268455631154454</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.150561539572192</v>
+        <v>0.1503478263911714</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>510</v>
@@ -1633,19 +1633,19 @@
         <v>535342</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>495536</v>
+        <v>493950</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>582208</v>
+        <v>578391</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1585118970466272</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1467255896697603</v>
+        <v>0.146255739206859</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1723884966795035</v>
+        <v>0.1712582790597645</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>969</v>
@@ -1654,19 +1654,19 @@
         <v>989828</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>930100</v>
+        <v>932832</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1050565</v>
+        <v>1047871</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1487998107173084</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1398209032903083</v>
+        <v>0.1402316234895329</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1579303435299776</v>
+        <v>0.1575253929321466</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2820293</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2781723</v>
+        <v>2782423</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2855360</v>
+        <v>2859388</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8612163266083791</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8494384604278079</v>
+        <v>0.8496521736088284</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8719245958720651</v>
+        <v>0.8731544368845545</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2785</v>
@@ -1704,19 +1704,19 @@
         <v>2841958</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2795092</v>
+        <v>2798909</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2881764</v>
+        <v>2883350</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8414881029533728</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8276115033204966</v>
+        <v>0.8287417209402355</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8532744103302398</v>
+        <v>0.8537442607931413</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5538</v>
@@ -1725,19 +1725,19 @@
         <v>5662251</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5601514</v>
+        <v>5604208</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5721979</v>
+        <v>5719247</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8512001892826916</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8420696564700225</v>
+        <v>0.8424746070678535</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8601790967096917</v>
+        <v>0.8597683765104674</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>142112</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>120745</v>
+        <v>121403</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>167412</v>
+        <v>164945</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2023113664717388</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1718931703924879</v>
+        <v>0.1728293570143615</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2383289675261563</v>
+        <v>0.2348162244750394</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>125</v>
@@ -2090,19 +2090,19 @@
         <v>133037</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>113869</v>
+        <v>112388</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>155936</v>
+        <v>153178</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1908576584760751</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1633586391972982</v>
+        <v>0.1612330778138967</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2237079446112681</v>
+        <v>0.2197512775110273</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>256</v>
@@ -2111,19 +2111,19 @@
         <v>275149</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>244416</v>
+        <v>245401</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>306949</v>
+        <v>307901</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1966065761761241</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1746463393946636</v>
+        <v>0.1753502598117447</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2193286477059714</v>
+        <v>0.2200088765699519</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>560330</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>535030</v>
+        <v>537497</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>581697</v>
+        <v>581039</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7976886335282611</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7616710324738436</v>
+        <v>0.7651837755249606</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.828106829607512</v>
+        <v>0.8271706429856386</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>525</v>
@@ -2161,19 +2161,19 @@
         <v>564013</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>541114</v>
+        <v>543872</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>583181</v>
+        <v>584662</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8091423415239248</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7762920553887318</v>
+        <v>0.7802487224889727</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8366413608027017</v>
+        <v>0.8387669221861033</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1067</v>
@@ -2182,19 +2182,19 @@
         <v>1124343</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1092543</v>
+        <v>1091591</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1155076</v>
+        <v>1154091</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8033934238238759</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7806713522940287</v>
+        <v>0.7799911234300482</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8253536606053364</v>
+        <v>0.8246497401882553</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>179297</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>152868</v>
+        <v>156137</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>205902</v>
+        <v>204267</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1761361836866133</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1501724663473795</v>
+        <v>0.1533842189771799</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2022715304379828</v>
+        <v>0.2006658672202012</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>175</v>
@@ -2307,19 +2307,19 @@
         <v>191792</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>165974</v>
+        <v>166036</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>218776</v>
+        <v>215695</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1860052064895376</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1609656587782838</v>
+        <v>0.161026003829738</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2121746298116446</v>
+        <v>0.2091869950013117</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>338</v>
@@ -2328,19 +2328,19 @@
         <v>371090</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>339408</v>
+        <v>333729</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>407226</v>
+        <v>406886</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1811024009586574</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1656408151511876</v>
+        <v>0.1628694342528818</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1987377146886221</v>
+        <v>0.1985718043402177</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>838650</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>812045</v>
+        <v>813680</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>865079</v>
+        <v>861810</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8238638163133867</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7977284695620173</v>
+        <v>0.7993341327797988</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8498275336526205</v>
+        <v>0.8466157810228201</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>764</v>
@@ -2378,19 +2378,19 @@
         <v>839321</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>812337</v>
+        <v>815418</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>865139</v>
+        <v>865077</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8139947935104624</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7878253701883555</v>
+        <v>0.7908130049986883</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8390343412217163</v>
+        <v>0.838973996170262</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1537</v>
@@ -2399,19 +2399,19 @@
         <v>1677970</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1641834</v>
+        <v>1642174</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1709652</v>
+        <v>1715331</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8188975990413425</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8012622853113777</v>
+        <v>0.8014281956597825</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8343591848488123</v>
+        <v>0.8371305657471182</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>118840</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>99150</v>
+        <v>97958</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>142798</v>
+        <v>140765</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1570676351972828</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1310431895216591</v>
+        <v>0.12946821183635</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1887315895025187</v>
+        <v>0.1860446095324009</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>121</v>
@@ -2524,19 +2524,19 @@
         <v>133365</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>114278</v>
+        <v>112884</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>157679</v>
+        <v>156352</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1716028798760297</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1470432438683563</v>
+        <v>0.1452490958307996</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2028876069913255</v>
+        <v>0.2011806474752766</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>224</v>
@@ -2545,19 +2545,19 @@
         <v>252205</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>218537</v>
+        <v>223775</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>283147</v>
+        <v>280712</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1644326591723552</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1424816267147595</v>
+        <v>0.1458962493940115</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1846058327170521</v>
+        <v>0.1830185570348453</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>637778</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>613820</v>
+        <v>615853</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>657468</v>
+        <v>658660</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8429323648027173</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8112684104974812</v>
+        <v>0.8139553904675992</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8689568104783408</v>
+        <v>0.8705317881636502</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>584</v>
@@ -2595,19 +2595,19 @@
         <v>643809</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>619495</v>
+        <v>620822</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>662896</v>
+        <v>664290</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8283971201239703</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7971123930086742</v>
+        <v>0.7988193525247234</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8529567561316437</v>
+        <v>0.8547509041691999</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1169</v>
@@ -2616,19 +2616,19 @@
         <v>1281587</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1250645</v>
+        <v>1253080</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1315255</v>
+        <v>1310017</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8355673408276448</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8153941672829483</v>
+        <v>0.816981442965155</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8575183732852406</v>
+        <v>0.8541037506059885</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>163921</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>138950</v>
+        <v>139875</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>189477</v>
+        <v>189773</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1735081600079039</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.147075939862731</v>
+        <v>0.148055123034087</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2005586540500025</v>
+        <v>0.2008710705908442</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>181</v>
@@ -2741,19 +2741,19 @@
         <v>191156</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>163540</v>
+        <v>165737</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>216976</v>
+        <v>217828</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.181724301674967</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1554713426340429</v>
+        <v>0.1575599428243883</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2062702157434649</v>
+        <v>0.2070803691681717</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>332</v>
@@ -2762,19 +2762,19 @@
         <v>355077</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>317199</v>
+        <v>319552</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>391150</v>
+        <v>392134</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.177836696564149</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1588658990413611</v>
+        <v>0.1600440460826477</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.195903079320511</v>
+        <v>0.1963958649948533</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>780827</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>755271</v>
+        <v>754975</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>805798</v>
+        <v>804873</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8264918399920961</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7994413459499973</v>
+        <v>0.7991289294091558</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8529240601372688</v>
+        <v>0.8519448769659125</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>822</v>
@@ -2812,19 +2812,19 @@
         <v>860745</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>834925</v>
+        <v>834073</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>888361</v>
+        <v>886164</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.818275698325033</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7937297842565352</v>
+        <v>0.7929196308318283</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8445286573659572</v>
+        <v>0.8424400571756115</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1578</v>
@@ -2833,19 +2833,19 @@
         <v>1641572</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1605499</v>
+        <v>1604515</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1679450</v>
+        <v>1677097</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8221633034358511</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.804096920679489</v>
+        <v>0.8036041350051467</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8411341009586389</v>
+        <v>0.8399559539173523</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>604171</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>560612</v>
+        <v>554535</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>650732</v>
+        <v>656824</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1765675754991695</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1638376777489812</v>
+        <v>0.162061517111001</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1901750089915241</v>
+        <v>0.1919552390093179</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>602</v>
@@ -2958,19 +2958,19 @@
         <v>649351</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>600969</v>
+        <v>601153</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>695980</v>
+        <v>698813</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1825435882286722</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1689427255807379</v>
+        <v>0.168994430499523</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1956517450342284</v>
+        <v>0.1964480818317585</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1150</v>
@@ -2979,19 +2979,19 @@
         <v>1253522</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1189191</v>
+        <v>1190942</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1324854</v>
+        <v>1319027</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1796135880867536</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1703957927077572</v>
+        <v>0.1706466298258435</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1898345460167601</v>
+        <v>0.1889995870615094</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2817584</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2771023</v>
+        <v>2764931</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2861143</v>
+        <v>2867220</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8234324245008305</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.809824991008476</v>
+        <v>0.8080447609906821</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8361623222510188</v>
+        <v>0.837938482888999</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2695</v>
@@ -3029,19 +3029,19 @@
         <v>2907887</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2861258</v>
+        <v>2858425</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2956269</v>
+        <v>2956085</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8174564117713278</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8043482549657717</v>
+        <v>0.8035519181682416</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8310572744192621</v>
+        <v>0.8310055695004771</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5351</v>
@@ -3050,19 +3050,19 @@
         <v>5725471</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5654139</v>
+        <v>5659966</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5789802</v>
+        <v>5788051</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8203864119132463</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8101654539832395</v>
+        <v>0.8110004129384906</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8296042072922425</v>
+        <v>0.8293533701741564</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>115167</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>97258</v>
+        <v>97547</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>136428</v>
+        <v>134286</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1706677963710864</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1441290917920712</v>
+        <v>0.1445573962030423</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2021753923976317</v>
+        <v>0.1990011450217518</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>113</v>
@@ -3415,19 +3415,19 @@
         <v>119528</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>100457</v>
+        <v>101163</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>139276</v>
+        <v>142871</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1776475984241234</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1493031752916021</v>
+        <v>0.1503520333314995</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2069974192375252</v>
+        <v>0.2123408953590379</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>232</v>
@@ -3436,19 +3436,19 @@
         <v>234695</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>208953</v>
+        <v>208877</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>262805</v>
+        <v>267007</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1741526191068145</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.155050814982977</v>
+        <v>0.1549947271329767</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1950114729310414</v>
+        <v>0.1981293528978526</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>559633</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>538372</v>
+        <v>540514</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>577542</v>
+        <v>577253</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8293322036289137</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7978246076023684</v>
+        <v>0.8009988549782485</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.855870908207929</v>
+        <v>0.8554426037969578</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>553</v>
@@ -3486,19 +3486,19 @@
         <v>553311</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>533563</v>
+        <v>529968</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>572382</v>
+        <v>571676</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8223524015758766</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7930025807624748</v>
+        <v>0.7876591046409621</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8506968247083979</v>
+        <v>0.8496479666685005</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1086</v>
@@ -3507,19 +3507,19 @@
         <v>1112944</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1084834</v>
+        <v>1080632</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1138686</v>
+        <v>1138762</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8258473808931854</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8049885270689586</v>
+        <v>0.8018706471021473</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.844949185017023</v>
+        <v>0.845005272867023</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>148260</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>128628</v>
+        <v>125873</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>172939</v>
+        <v>171788</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1450074821532059</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1258063347980242</v>
+        <v>0.123111103820828</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.169144999378335</v>
+        <v>0.1680195532358166</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>159</v>
@@ -3632,19 +3632,19 @@
         <v>187954</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>164618</v>
+        <v>162195</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>216639</v>
+        <v>215932</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1802199635449055</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1578447241493484</v>
+        <v>0.1555210981836686</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2077246575584855</v>
+        <v>0.2070474710541126</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>307</v>
@@ -3653,19 +3653,19 @@
         <v>336214</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>303943</v>
+        <v>304020</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>372538</v>
+        <v>370019</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1627883238851104</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1471634413297424</v>
+        <v>0.1472007615992753</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1803759529040787</v>
+        <v>0.1791559212373766</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>874171</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>849492</v>
+        <v>850643</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>893803</v>
+        <v>896558</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8549925178467941</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8308550006216648</v>
+        <v>0.8319804467641834</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8741936652019758</v>
+        <v>0.876888896179172</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>818</v>
@@ -3703,19 +3703,19 @@
         <v>854959</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>826274</v>
+        <v>826981</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>878295</v>
+        <v>880718</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8197800364550945</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7922753424415148</v>
+        <v>0.7929525289458874</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8421552758506516</v>
+        <v>0.8444789018163315</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1621</v>
@@ -3724,19 +3724,19 @@
         <v>1729130</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1692806</v>
+        <v>1695325</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1761401</v>
+        <v>1761324</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8372116761148896</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8196240470959213</v>
+        <v>0.8208440787626234</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8528365586702576</v>
+        <v>0.8527992384007247</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>126463</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>105339</v>
+        <v>107264</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>149206</v>
+        <v>149104</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1664967887511245</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1386860603909606</v>
+        <v>0.1412199446685894</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1964394412125317</v>
+        <v>0.1963046121555257</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -3849,19 +3849,19 @@
         <v>122959</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103808</v>
+        <v>102855</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>146533</v>
+        <v>144771</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1566332014236317</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.132237265371121</v>
+        <v>0.1310235295873088</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1866636957890248</v>
+        <v>0.1844191268876923</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>224</v>
@@ -3870,19 +3870,19 @@
         <v>249422</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>221197</v>
+        <v>218936</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>278847</v>
+        <v>279988</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1614837056175557</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.143209921739648</v>
+        <v>0.1417463416389202</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1805348251637706</v>
+        <v>0.1812731025340213</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>633089</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610346</v>
+        <v>610448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>654213</v>
+        <v>652288</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8335032112488755</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8035605587874679</v>
+        <v>0.8036953878444744</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8613139396090391</v>
+        <v>0.8587800553314106</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>631</v>
@@ -3920,19 +3920,19 @@
         <v>662052</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>638478</v>
+        <v>640240</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>681203</v>
+        <v>682156</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8433667985763683</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8133363042109756</v>
+        <v>0.8155808731123074</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.867762734628879</v>
+        <v>0.8689764704126912</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1208</v>
@@ -3941,19 +3941,19 @@
         <v>1295141</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1265716</v>
+        <v>1264575</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1323366</v>
+        <v>1325627</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8385162943824442</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8194651748362295</v>
+        <v>0.8187268974659786</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8567900782603521</v>
+        <v>0.8582536583610795</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>144458</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>123418</v>
+        <v>124270</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>165330</v>
+        <v>165437</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1540774649566768</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1316367626787215</v>
+        <v>0.1325456097404807</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.176338899000712</v>
+        <v>0.1764531464003503</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>149</v>
@@ -4066,19 +4066,19 @@
         <v>182439</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>154188</v>
+        <v>157410</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>209885</v>
+        <v>211534</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1747874024781635</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1477211776173063</v>
+        <v>0.1508076917569769</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2010818944903266</v>
+        <v>0.2026620541416508</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>299</v>
@@ -4087,19 +4087,19 @@
         <v>326897</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>293240</v>
+        <v>292961</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>362536</v>
+        <v>363522</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.164987522064299</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1480004255283032</v>
+        <v>0.1478593551407129</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1829746273270884</v>
+        <v>0.1834721928906803</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>793109</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>772237</v>
+        <v>772130</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>814149</v>
+        <v>813297</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8459225350433233</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8236611009992885</v>
+        <v>0.8235468535996496</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8683632373212787</v>
+        <v>0.8674543902595194</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>810</v>
@@ -4137,19 +4137,19 @@
         <v>861340</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>833894</v>
+        <v>832245</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>889591</v>
+        <v>886369</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8252125975218365</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7989181055096735</v>
+        <v>0.7973379458583493</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8522788223826947</v>
+        <v>0.8491923082430233</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1592</v>
@@ -4158,19 +4158,19 @@
         <v>1654449</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1618810</v>
+        <v>1617824</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1688106</v>
+        <v>1688385</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.835012477935701</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8170253726729118</v>
+        <v>0.8165278071093197</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8519995744716969</v>
+        <v>0.8521406448592873</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>534348</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>497624</v>
+        <v>495119</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>577917</v>
+        <v>576092</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1574226856167529</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.146603495658466</v>
+        <v>0.1458655455479583</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1702585967430945</v>
+        <v>0.1697210066435183</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>526</v>
@@ -4283,19 +4283,19 @@
         <v>612880</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>564008</v>
+        <v>568450</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>659789</v>
+        <v>664315</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1729081448371995</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1591200981543988</v>
+        <v>0.1603733286697046</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1861421914368506</v>
+        <v>0.1874192678264694</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1062</v>
@@ -4304,19 +4304,19 @@
         <v>1147228</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1080622</v>
+        <v>1082044</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1208440</v>
+        <v>1212543</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1653330058630114</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1557340551663196</v>
+        <v>0.1559390549684145</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1741546503490619</v>
+        <v>0.1747458924051066</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2860002</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2816433</v>
+        <v>2818258</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2896726</v>
+        <v>2899231</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8425773143832471</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8297414032569056</v>
+        <v>0.8302789933564817</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.853396504341534</v>
+        <v>0.8541344544520417</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2812</v>
@@ -4354,19 +4354,19 @@
         <v>2931662</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2884753</v>
+        <v>2880227</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2980534</v>
+        <v>2976092</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8270918551628005</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8138578085631495</v>
+        <v>0.8125807321735306</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8408799018456012</v>
+        <v>0.8396266713302953</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5507</v>
@@ -4375,19 +4375,19 @@
         <v>5791664</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5730452</v>
+        <v>5726349</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5858270</v>
+        <v>5856848</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8346669941369886</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8258453496509381</v>
+        <v>0.8252541075948934</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8442659448336804</v>
+        <v>0.8440609450315855</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>222038</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>198381</v>
+        <v>197904</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>246740</v>
+        <v>245069</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3214627376548758</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2872127054003659</v>
+        <v>0.2865225126661521</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3572259211054996</v>
+        <v>0.3548071323678416</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>555</v>
@@ -4740,19 +4740,19 @@
         <v>274383</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>252732</v>
+        <v>253702</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>293745</v>
+        <v>297385</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3744710283431403</v>
+        <v>0.3744710283431402</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.344922020701456</v>
+        <v>0.3462457331415186</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4008950355035967</v>
+        <v>0.4058630604523971</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>857</v>
@@ -4761,19 +4761,19 @@
         <v>496420</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>464430</v>
+        <v>465913</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>529273</v>
+        <v>530222</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3487491467264052</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3262753673748139</v>
+        <v>0.3273169807487322</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3718287891462591</v>
+        <v>0.3724958041099031</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>468672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>443970</v>
+        <v>445641</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>492329</v>
+        <v>492806</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6785372623451242</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6427740788945003</v>
+        <v>0.6451928676321586</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7127872945996341</v>
+        <v>0.7134774873338482</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>683</v>
@@ -4811,19 +4811,19 @@
         <v>458339</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>438977</v>
+        <v>435337</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>479990</v>
+        <v>479020</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6255289716568597</v>
+        <v>0.6255289716568596</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.599104964496403</v>
+        <v>0.5941369395476029</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6550779792985439</v>
+        <v>0.6537542668584815</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1111</v>
@@ -4832,19 +4832,19 @@
         <v>927011</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>894158</v>
+        <v>893209</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>959001</v>
+        <v>957518</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6512508532735948</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6281712108537408</v>
+        <v>0.6275041958900969</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6737246326251859</v>
+        <v>0.6726830192512677</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>280440</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>249425</v>
+        <v>250855</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>309966</v>
+        <v>309298</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2673614618998059</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2377928991951277</v>
+        <v>0.2391565247831253</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2955107805233478</v>
+        <v>0.2948733854576541</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>621</v>
@@ -4957,19 +4957,19 @@
         <v>381963</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>353826</v>
+        <v>352907</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>406749</v>
+        <v>406464</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3566958174370237</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3304195666262385</v>
+        <v>0.3295619236996198</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3798422141162687</v>
+        <v>0.3795756581824076</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>952</v>
@@ -4978,19 +4978,19 @@
         <v>662403</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>621840</v>
+        <v>620106</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>706314</v>
+        <v>701538</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3124905534845919</v>
+        <v>0.3124905534845918</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2933546487240888</v>
+        <v>0.2925364554230593</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3332054509742853</v>
+        <v>0.3309521671879143</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>768477</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>738951</v>
+        <v>739619</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>799492</v>
+        <v>798062</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7326385381001941</v>
+        <v>0.7326385381001942</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7044892194766524</v>
+        <v>0.705126614542346</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7622071008048724</v>
+        <v>0.7608434752168747</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>895</v>
@@ -5028,19 +5028,19 @@
         <v>688875</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>664089</v>
+        <v>664374</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>717012</v>
+        <v>717931</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6433041825629764</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6201577858837314</v>
+        <v>0.6204243418175925</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6695804333737623</v>
+        <v>0.6704380763003803</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1528</v>
@@ -5049,19 +5049,19 @@
         <v>1457352</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1413441</v>
+        <v>1418217</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1497915</v>
+        <v>1499649</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6875094465154082</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6667945490257147</v>
+        <v>0.6690478328120857</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7066453512759113</v>
+        <v>0.7074635445769405</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>238834</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>212378</v>
+        <v>213358</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>266024</v>
+        <v>265093</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2973996380027759</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2644564311619536</v>
+        <v>0.2656769492993712</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3312580364808356</v>
+        <v>0.330098670182091</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>376</v>
@@ -5174,19 +5174,19 @@
         <v>259894</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>236984</v>
+        <v>236978</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>284278</v>
+        <v>282813</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3199639334779996</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2917589946685254</v>
+        <v>0.2917520421172022</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3499847139349168</v>
+        <v>0.3481802152203381</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>623</v>
@@ -5195,19 +5195,19 @@
         <v>498727</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>463712</v>
+        <v>462476</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>537059</v>
+        <v>537435</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3087459424329705</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2870689926873264</v>
+        <v>0.2863037147186803</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3324759682034965</v>
+        <v>0.3327087510744339</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>564239</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>537049</v>
+        <v>537980</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>590695</v>
+        <v>589715</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7026003619972242</v>
+        <v>0.7026003619972241</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6687419635191645</v>
+        <v>0.6699013298179093</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7355435688380463</v>
+        <v>0.7343230507006286</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>671</v>
@@ -5245,19 +5245,19 @@
         <v>552365</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>527981</v>
+        <v>529446</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>575275</v>
+        <v>575281</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6800360665220004</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6500152860650832</v>
+        <v>0.6518197847796622</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7082410053314746</v>
+        <v>0.7082479578827979</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1100</v>
@@ -5266,19 +5266,19 @@
         <v>1116605</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1078273</v>
+        <v>1077897</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1151620</v>
+        <v>1152856</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6912540575670296</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6675240317965034</v>
+        <v>0.6672912489255661</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7129310073126736</v>
+        <v>0.7136962852813197</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>351124</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>320119</v>
+        <v>324837</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>381346</v>
+        <v>380452</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3546486322954546</v>
+        <v>0.3546486322954547</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3233324188012128</v>
+        <v>0.3280975073981895</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.38517431164224</v>
+        <v>0.384270864058142</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>686</v>
@@ -5391,19 +5391,19 @@
         <v>427813</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>400656</v>
+        <v>400546</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>457494</v>
+        <v>457824</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3825500202914888</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3582663448679481</v>
+        <v>0.3581678002494449</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.409090607994146</v>
+        <v>0.4093858639773197</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1134</v>
@@ -5412,19 +5412,19 @@
         <v>778937</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>739488</v>
+        <v>737098</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>818776</v>
+        <v>819567</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3694479709820025</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3507372147746679</v>
+        <v>0.3496038096083112</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3883435588657141</v>
+        <v>0.388718613734529</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>638938</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>608716</v>
+        <v>609610</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>669943</v>
+        <v>665225</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6453513677045453</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.61482568835776</v>
+        <v>0.615729135941858</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6766675811987871</v>
+        <v>0.6719024926018105</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>875</v>
@@ -5462,19 +5462,19 @@
         <v>690506</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>660825</v>
+        <v>660495</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>717663</v>
+        <v>717773</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6174499797085112</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5909093920058542</v>
+        <v>0.5906141360226803</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6417336551320519</v>
+        <v>0.6418321997505551</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1433</v>
@@ -5483,19 +5483,19 @@
         <v>1329444</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1289605</v>
+        <v>1288814</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1368893</v>
+        <v>1371283</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6305520290179975</v>
+        <v>0.6305520290179976</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6116564411342859</v>
+        <v>0.6112813862654711</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6492627852253321</v>
+        <v>0.6503961903916889</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1092435</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1037290</v>
+        <v>1034007</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1153456</v>
+        <v>1144253</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3092297937081</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2936202356636157</v>
+        <v>0.2926907407507263</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.326502744985211</v>
+        <v>0.3238975471330842</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2238</v>
@@ -5608,19 +5608,19 @@
         <v>1344053</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1290358</v>
+        <v>1294991</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1391165</v>
+        <v>1399371</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3599366550332037</v>
+        <v>0.3599366550332035</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3455571848324721</v>
+        <v>0.3467979395838051</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3725533656038037</v>
+        <v>0.3747508455926532</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3566</v>
@@ -5629,19 +5629,19 @@
         <v>2436488</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2365339</v>
+        <v>2363540</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2520066</v>
+        <v>2508577</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3352858010418433</v>
+        <v>0.3352858010418432</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3254949496318338</v>
+        <v>0.325247387605506</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.346787023965676</v>
+        <v>0.3452059779363593</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2440327</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2379306</v>
+        <v>2388509</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2495472</v>
+        <v>2498755</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6907702062919001</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6734972550147882</v>
+        <v>0.6761024528669159</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7063797643363841</v>
+        <v>0.707309259249274</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3124</v>
@@ -5679,19 +5679,19 @@
         <v>2390084</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2342972</v>
+        <v>2334766</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2443779</v>
+        <v>2439146</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6400633449667964</v>
+        <v>0.6400633449667963</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6274466343961962</v>
+        <v>0.6252491544073472</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6544428151675279</v>
+        <v>0.6532020604161956</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5172</v>
@@ -5700,19 +5700,19 @@
         <v>4830411</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4746833</v>
+        <v>4758322</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4901560</v>
+        <v>4903359</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6647141989581569</v>
+        <v>0.6647141989581568</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6532129760343239</v>
+        <v>0.6547940220636406</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6745050503681661</v>
+        <v>0.6747526123944942</v>
       </c>
     </row>
     <row r="18">
